--- a/complete reports/Comparing Filters.xlsx
+++ b/complete reports/Comparing Filters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\School Work\CSC\CSC2002S\Assignments\CHNTIN004_CSC2002S_Assignment_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\School Work\CSC\CSC2002S\Assignments\CHNTIN004_CSC2002S_Assignment_1\complete reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Comparing Filters" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -36,10 +36,10 @@
     <t>warm up  of 10 runs</t>
   </si>
   <si>
-    <t>averaged over 20 runs</t>
+    <t>4 cores (my PC)</t>
   </si>
   <si>
-    <t>4 cores (my PC)</t>
+    <t>averaged over 50 runs</t>
   </si>
 </sst>
 </file>
@@ -802,11 +802,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1768180464"/>
-        <c:axId val="1768182096"/>
+        <c:axId val="202581776"/>
+        <c:axId val="202579600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1768180464"/>
+        <c:axId val="202581776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,7 +848,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1768182096"/>
+        <c:crossAx val="202579600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -856,7 +856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1768182096"/>
+        <c:axId val="202579600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -907,7 +907,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1768180464"/>
+        <c:crossAx val="202581776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1831,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,8 +1866,12 @@
       <c r="C2">
         <v>0.112873354</v>
       </c>
+      <c r="D2">
+        <f>C2/B2</f>
+        <v>2.5409646392065746</v>
+      </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1880,6 +1884,10 @@
       <c r="C3">
         <v>0.14590594300000001</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D11" si="0">C3/B3</f>
+        <v>2.7249292765850242</v>
+      </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
@@ -1894,8 +1902,12 @@
       <c r="C4">
         <v>0.18816943699999999</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2.8572327897787377</v>
+      </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1908,6 +1920,10 @@
       <c r="C5">
         <v>0.24175914800000001</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3.0937926420148094</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1919,6 +1935,10 @@
       <c r="C6">
         <v>0.30965748199999998</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3.4014006973444393</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1930,6 +1950,10 @@
       <c r="C7">
         <v>0.39343784199999998</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>3.4381770018603519</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1941,6 +1965,10 @@
       <c r="C8">
         <v>0.48670976999999999</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>3.6409145147338875</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1952,6 +1980,10 @@
       <c r="C9">
         <v>0.59994905600000004</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3.7236465845374398</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1963,6 +1995,10 @@
       <c r="C10">
         <v>0.70783379700000004</v>
       </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>3.8239819936324175</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1973,6 +2009,10 @@
       </c>
       <c r="C11">
         <v>0.82933537000000002</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>3.8610488680162676</v>
       </c>
     </row>
   </sheetData>

--- a/complete reports/Comparing Filters.xlsx
+++ b/complete reports/Comparing Filters.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Filter Size</t>
   </si>
@@ -523,8 +523,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -598,6 +600,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Fig.2:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Time vs Filter Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -639,7 +671,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparing Filters'!$B$1</c:f>
+              <c:f>'Comparing Filters'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -672,41 +704,90 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Comparing Filters'!$A$1:$A$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Comparing Filters'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comparing Filters'!$B$2:$B$11</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Comparing Filters'!$G$2:$G$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Comparing Filters'!$G$3:$G$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.4421457999999997E-2</c:v>
+                  <c:v>0.11744708700000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3544855000000002E-2</c:v>
+                  <c:v>0.150902071</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5857230000000003E-2</c:v>
+                  <c:v>0.19905715500000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8143294000000002E-2</c:v>
+                  <c:v>0.233340082</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.1038225E-2</c:v>
+                  <c:v>0.27438496200000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.114432108</c:v>
+                  <c:v>0.33752625800000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13367788999999999</c:v>
+                  <c:v>0.373346226</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16111868900000001</c:v>
+                  <c:v>0.42132223899999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18510385200000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21479535699999999</c:v>
+                  <c:v>0.493861353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -718,7 +799,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparing Filters'!$C$1</c:f>
+              <c:f>'Comparing Filters'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -751,41 +832,90 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Comparing Filters'!$A$1:$A$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Comparing Filters'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comparing Filters'!$C$2:$C$11</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Comparing Filters'!$H$2:$H$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Comparing Filters'!$H$3:$H$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.112873354</c:v>
+                  <c:v>0.34864527200000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14590594300000001</c:v>
+                  <c:v>0.53969460700000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18816943699999999</c:v>
+                  <c:v>0.72841063500000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24175914800000001</c:v>
+                  <c:v>0.91094304500000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30965748199999998</c:v>
+                  <c:v>1.109932929</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39343784199999998</c:v>
+                  <c:v>1.3535279739999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.48670976999999999</c:v>
+                  <c:v>1.569527941</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59994905600000004</c:v>
+                  <c:v>1.8115242490000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.70783379700000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.82933537000000002</c:v>
+                  <c:v>2.1103424099999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -802,16 +932,73 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202581776"/>
-        <c:axId val="202579600"/>
+        <c:axId val="-2044354592"/>
+        <c:axId val="-2044344800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202581776"/>
+        <c:axId val="-2044354592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Filter Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -848,7 +1035,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202579600"/>
+        <c:crossAx val="-2044344800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -856,7 +1043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202579600"/>
+        <c:axId val="-2044344800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,7 +1063,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Avg Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -907,10 +1150,49 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202581776"/>
+        <c:crossAx val="-2044354592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1535,20 +1817,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>248477</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>149086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323022</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1829,10 +2111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G2" sqref="G2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,9 +2122,11 @@
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1855,168 +2139,298 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>4.4421457999999997E-2</v>
-      </c>
-      <c r="C2">
-        <v>0.112873354</v>
+      <c r="B2" s="1">
+        <v>104709533</v>
+      </c>
+      <c r="C2" s="1">
+        <v>252385369</v>
       </c>
       <c r="D2">
         <f>C2/B2</f>
-        <v>2.5409646392065746</v>
+        <v>2.410338025287535</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="2">
+        <f>B2/1000000000</f>
+        <v>0.10470953299999999</v>
+      </c>
+      <c r="H2" s="2">
+        <f>C2/1000000000</f>
+        <v>0.25238536900000003</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>5.3544855000000002E-2</v>
-      </c>
-      <c r="C3">
-        <v>0.14590594300000001</v>
+      <c r="B3" s="1">
+        <v>117447087</v>
+      </c>
+      <c r="C3" s="1">
+        <v>348645272</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D11" si="0">C3/B3</f>
-        <v>2.7249292765850242</v>
+        <v>2.9685306030621263</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G11" si="1">B3/1000000000</f>
+        <v>0.11744708700000001</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H11" si="2">C3/1000000000</f>
+        <v>0.34864527200000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>6.5857230000000003E-2</v>
-      </c>
-      <c r="C4">
-        <v>0.18816943699999999</v>
+      <c r="B4" s="1">
+        <v>150902071</v>
+      </c>
+      <c r="C4" s="1">
+        <v>539694607</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>2.8572327897787377</v>
+        <v>3.5764559321389302</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.150902071</v>
+      </c>
+      <c r="H4" s="2">
+        <f>C4/1000000000</f>
+        <v>0.53969460700000005</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>7.8143294000000002E-2</v>
-      </c>
-      <c r="C5">
-        <v>0.24175914800000001</v>
+      <c r="B5" s="1">
+        <v>199057155</v>
+      </c>
+      <c r="C5" s="1">
+        <v>728410635</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>3.0937926420148094</v>
+        <v>3.6593039571976198</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19905715500000001</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.72841063500000003</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>9.1038225E-2</v>
-      </c>
-      <c r="C6">
-        <v>0.30965748199999998</v>
+      <c r="B6" s="1">
+        <v>233340082</v>
+      </c>
+      <c r="C6" s="1">
+        <v>910943045</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>3.4014006973444393</v>
+        <v>3.9039287086562351</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.233340082</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.91094304500000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>0.114432108</v>
-      </c>
-      <c r="C7">
-        <v>0.39343784199999998</v>
+      <c r="B7" s="1">
+        <v>274384962</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1109932929</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>3.4381770018603519</v>
+        <v>4.0451667646421523</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27438496200000001</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
+        <v>1.109932929</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>0.13367788999999999</v>
-      </c>
-      <c r="C8">
-        <v>0.48670976999999999</v>
+      <c r="B8" s="1">
+        <v>337526258</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1353527974</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>3.6409145147338875</v>
+        <v>4.0101412613652121</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>0.33752625800000002</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3535279739999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>17</v>
       </c>
-      <c r="B9">
-        <v>0.16111868900000001</v>
-      </c>
-      <c r="C9">
-        <v>0.59994905600000004</v>
+      <c r="B9" s="1">
+        <v>373346226</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1569527941</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>3.7236465845374398</v>
+        <v>4.2039475202837595</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.373346226</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
+        <v>1.569527941</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>19</v>
       </c>
-      <c r="B10">
-        <v>0.18510385200000001</v>
-      </c>
-      <c r="C10">
-        <v>0.70783379700000004</v>
+      <c r="B10" s="1">
+        <v>421322239</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1811524249</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>3.8239819936324175</v>
+        <v>4.2996169708478167</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.42132223899999999</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8115242490000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
-      <c r="B11">
-        <v>0.21479535699999999</v>
-      </c>
-      <c r="C11">
-        <v>0.82933537000000002</v>
+      <c r="B11" s="1">
+        <v>493861353</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2110342410</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>3.8610488680162676</v>
-      </c>
+        <v>4.2731475082643282</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.493861353</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>2.1103424099999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>